--- a/src/cab/perm/falcon.login.index.xlsx
+++ b/src/cab/perm/falcon.login.index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3B659-4716-E243-959C-648CC5D7A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32186400-4A2B-7449-8457-69D56F1A2428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62300" yWindow="-6040" windowWidth="50580" windowHeight="29220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>permId</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
-  </si>
-  <si>
     <t>ad4462be-4abb-40fb-94fa-dcae9c6498e0</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>2834be85-722c-4890-a040-a7fcf925e9a3</t>
+  </si>
+  <si>
+    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -796,79 +796,79 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -906,13 +906,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>5</v>
@@ -921,22 +921,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>33</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -956,22 +956,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/cab/perm/falcon.login.index.xlsx
+++ b/src/cab/perm/falcon.login.index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32186400-4A2B-7449-8457-69D56F1A2428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3B659-4716-E243-959C-648CC5D7A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="62300" yWindow="-6040" windowWidth="50580" windowHeight="29220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>permId</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>ad4462be-4abb-40fb-94fa-dcae9c6498e0</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t>2834be85-722c-4890-a040-a7fcf925e9a3</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -796,79 +796,79 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -890,10 +890,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -906,13 +906,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>5</v>
@@ -921,22 +921,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -947,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>1</v>
@@ -956,22 +956,22 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
